--- a/team_specific_matrix/Mercy_B.xlsx
+++ b/team_specific_matrix/Mercy_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1660079051383399</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="C2">
-        <v>0.6403162055335968</v>
+        <v>0.6178343949044586</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01976284584980237</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1264822134387352</v>
+        <v>0.1305732484076433</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.04743083003952569</v>
+        <v>0.05414012738853503</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="C3">
-        <v>0.01764705882352941</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03529411764705882</v>
+        <v>0.04455445544554455</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8058823529411765</v>
+        <v>0.806930693069307</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1411764705882353</v>
+        <v>0.1287128712871287</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7424242424242424</v>
+        <v>0.7432432432432432</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1666666666666667</v>
+        <v>0.1756756756756757</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05978260869565218</v>
+        <v>0.04641350210970464</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03260869565217391</v>
+        <v>0.02953586497890295</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04347826086956522</v>
+        <v>0.04641350210970464</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2717391304347826</v>
+        <v>0.2658227848101266</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01630434782608696</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2010869565217391</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="R6">
-        <v>0.06521739130434782</v>
+        <v>0.09282700421940929</v>
       </c>
       <c r="S6">
-        <v>0.3097826086956522</v>
+        <v>0.3122362869198312</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07100591715976332</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0650887573964497</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07100591715976332</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1479289940828402</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02366863905325444</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2189349112426036</v>
+        <v>0.2227722772277228</v>
       </c>
       <c r="R7">
-        <v>0.08875739644970414</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="S7">
-        <v>0.3136094674556213</v>
+        <v>0.3217821782178218</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08684863523573201</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01985111662531017</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08188585607940446</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1339950372208437</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02481389578163772</v>
+        <v>0.02217741935483871</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1637717121588089</v>
+        <v>0.1713709677419355</v>
       </c>
       <c r="R8">
-        <v>0.08684863523573201</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="S8">
-        <v>0.401985111662531</v>
+        <v>0.3790322580645161</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09523809523809523</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02040816326530612</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08843537414965986</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1428571428571428</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02040816326530612</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2585034013605442</v>
+        <v>0.2611111111111111</v>
       </c>
       <c r="R9">
-        <v>0.04081632653061224</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S9">
         <v>0.3333333333333333</v>
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1034214618973561</v>
+        <v>0.1033187226048842</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02954898911353033</v>
+        <v>0.02629931120851597</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0552099533437014</v>
+        <v>0.06073888541014402</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.125194401244168</v>
+        <v>0.1258609893550407</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008553654743390357</v>
+        <v>0.0100187852222918</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2363919129082426</v>
+        <v>0.2298058860363181</v>
       </c>
       <c r="R10">
-        <v>0.1018662519440124</v>
+        <v>0.1020663744520977</v>
       </c>
       <c r="S10">
-        <v>0.3398133748055988</v>
+        <v>0.3418910457107076</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1463414634146341</v>
+        <v>0.1471571906354515</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08943089430894309</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K11">
-        <v>0.2073170731707317</v>
+        <v>0.2107023411371237</v>
       </c>
       <c r="L11">
-        <v>0.5487804878048781</v>
+        <v>0.5451505016722408</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008130081300813009</v>
+        <v>0.01003344481605351</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1571428571428571</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K12">
-        <v>0.007142857142857143</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="L12">
-        <v>0.05</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03571428571428571</v>
+        <v>0.03529411764705882</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7560975609756098</v>
+        <v>0.74</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2195121951219512</v>
+        <v>0.24</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02439024390243903</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02843601895734597</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1563981042654028</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="I15">
-        <v>0.04739336492890995</v>
+        <v>0.05725190839694656</v>
       </c>
       <c r="J15">
-        <v>0.4549763033175355</v>
+        <v>0.4465648854961832</v>
       </c>
       <c r="K15">
-        <v>0.05213270142180094</v>
+        <v>0.04961832061068702</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004739336492890996</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04739336492890995</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2085308056872038</v>
+        <v>0.2022900763358779</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03398058252427184</v>
+        <v>0.03305785123966942</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1893203883495146</v>
+        <v>0.1900826446280992</v>
       </c>
       <c r="I16">
-        <v>0.05825242718446602</v>
+        <v>0.06198347107438017</v>
       </c>
       <c r="J16">
-        <v>0.441747572815534</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="K16">
-        <v>0.09223300970873786</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01941747572815534</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="N16">
-        <v>0.004854368932038835</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="O16">
-        <v>0.06310679611650485</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0970873786407767</v>
+        <v>0.08264462809917356</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01244813278008299</v>
+        <v>0.0135593220338983</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1784232365145228</v>
+        <v>0.176271186440678</v>
       </c>
       <c r="I17">
-        <v>0.07676348547717843</v>
+        <v>0.08135593220338982</v>
       </c>
       <c r="J17">
-        <v>0.4647302904564315</v>
+        <v>0.4542372881355932</v>
       </c>
       <c r="K17">
-        <v>0.0912863070539419</v>
+        <v>0.09152542372881356</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01659751037344398</v>
+        <v>0.01864406779661017</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05601659751037345</v>
+        <v>0.0576271186440678</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1037344398340249</v>
+        <v>0.1067796610169491</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02072538860103627</v>
+        <v>0.0193050193050193</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1813471502590674</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="I18">
-        <v>0.08808290155440414</v>
+        <v>0.07722007722007722</v>
       </c>
       <c r="J18">
-        <v>0.5077720207253886</v>
+        <v>0.5057915057915058</v>
       </c>
       <c r="K18">
-        <v>0.06735751295336788</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01036269430051814</v>
+        <v>0.007722007722007722</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04145077720207254</v>
+        <v>0.05019305019305019</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08290155440414508</v>
+        <v>0.0694980694980695</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007662835249042145</v>
+        <v>0.01174628034455756</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2021072796934866</v>
+        <v>0.2028191072826938</v>
       </c>
       <c r="I19">
-        <v>0.06513409961685823</v>
+        <v>0.06186374314800313</v>
       </c>
       <c r="J19">
-        <v>0.3984674329501915</v>
+        <v>0.4025058731401723</v>
       </c>
       <c r="K19">
-        <v>0.09482758620689655</v>
+        <v>0.09240407204385279</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02777777777777778</v>
+        <v>0.02505873140172279</v>
       </c>
       <c r="N19">
-        <v>0.001915708812260536</v>
+        <v>0.001566170712607674</v>
       </c>
       <c r="O19">
-        <v>0.08620689655172414</v>
+        <v>0.08613938919342208</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1159003831417625</v>
+        <v>0.1158966327329679</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Mercy_B.xlsx
+++ b/team_specific_matrix/Mercy_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1719745222929936</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C2">
-        <v>0.6178343949044586</v>
+        <v>0.6144200626959248</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02547770700636943</v>
+        <v>0.02507836990595611</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1305732484076433</v>
+        <v>0.1316614420062696</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05414012738853503</v>
+        <v>0.05642633228840126</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004950495049504951</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="C3">
-        <v>0.01485148514851485</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04455445544554455</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.806930693069307</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1287128712871287</v>
+        <v>0.1323529411764706</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08108108108108109</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7432432432432432</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1756756756756757</v>
+        <v>0.1948051948051948</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04641350210970464</v>
+        <v>0.04471544715447155</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02953586497890295</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04641350210970464</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2658227848101266</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01687763713080169</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.189873417721519</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="R6">
-        <v>0.09282700421940929</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="S6">
-        <v>0.3122362869198312</v>
+        <v>0.3089430894308943</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06930693069306931</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0594059405940594</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07425742574257425</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1485148514851485</v>
+        <v>0.1504854368932039</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02475247524752475</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2227722772277228</v>
+        <v>0.2233009708737864</v>
       </c>
       <c r="R7">
-        <v>0.07920792079207921</v>
+        <v>0.0825242718446602</v>
       </c>
       <c r="S7">
-        <v>0.3217821782178218</v>
+        <v>0.3203883495145631</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08870967741935484</v>
+        <v>0.08627450980392157</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02016129032258064</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07258064516129033</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1370967741935484</v>
+        <v>0.1352941176470588</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02217741935483871</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1713709677419355</v>
+        <v>0.1686274509803922</v>
       </c>
       <c r="R8">
-        <v>0.1088709677419355</v>
+        <v>0.1098039215686274</v>
       </c>
       <c r="S8">
-        <v>0.3790322580645161</v>
+        <v>0.3745098039215686</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09444444444444444</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01666666666666667</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1388888888888889</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01666666666666667</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2611111111111111</v>
+        <v>0.2594594594594595</v>
       </c>
       <c r="R9">
-        <v>0.05555555555555555</v>
+        <v>0.05945945945945946</v>
       </c>
       <c r="S9">
-        <v>0.3333333333333333</v>
+        <v>0.3405405405405406</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1033187226048842</v>
+        <v>0.1024242424242424</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02629931120851597</v>
+        <v>0.02606060606060606</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06073888541014402</v>
+        <v>0.06</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1258609893550407</v>
+        <v>0.1260606060606061</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0100187852222918</v>
+        <v>0.01090909090909091</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2298058860363181</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="R10">
-        <v>0.1020663744520977</v>
+        <v>0.1024242424242424</v>
       </c>
       <c r="S10">
-        <v>0.3418910457107076</v>
+        <v>0.3454545454545455</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1471571906354515</v>
+        <v>0.1452145214521452</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08695652173913043</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="K11">
-        <v>0.2107023411371237</v>
+        <v>0.2112211221122112</v>
       </c>
       <c r="L11">
-        <v>0.5451505016722408</v>
+        <v>0.5445544554455446</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01003344481605351</v>
+        <v>0.009900990099009901</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7294117647058823</v>
+        <v>0.7267441860465116</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1764705882352941</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="K12">
-        <v>0.005882352941176471</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="L12">
-        <v>0.05294117647058823</v>
+        <v>0.05232558139534884</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03529411764705882</v>
+        <v>0.03488372093023256</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.74</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.24</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02</v>
+        <v>0.01886792452830189</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02290076335877863</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1603053435114504</v>
+        <v>0.1544117647058824</v>
       </c>
       <c r="I15">
-        <v>0.05725190839694656</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J15">
-        <v>0.4465648854961832</v>
+        <v>0.4448529411764706</v>
       </c>
       <c r="K15">
-        <v>0.04961832061068702</v>
+        <v>0.04779411764705882</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007633587786259542</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05343511450381679</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2022900763358779</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03305785123966942</v>
+        <v>0.0326530612244898</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1900826446280992</v>
+        <v>0.1877551020408163</v>
       </c>
       <c r="I16">
-        <v>0.06198347107438017</v>
+        <v>0.0653061224489796</v>
       </c>
       <c r="J16">
-        <v>0.4545454545454545</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="K16">
-        <v>0.09090909090909091</v>
+        <v>0.08979591836734693</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02479338842975207</v>
+        <v>0.02448979591836735</v>
       </c>
       <c r="N16">
-        <v>0.004132231404958678</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="O16">
-        <v>0.05785123966942149</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08264462809917356</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0135593220338983</v>
+        <v>0.01331114808652246</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.176271186440678</v>
+        <v>0.1747088186356073</v>
       </c>
       <c r="I17">
-        <v>0.08135593220338982</v>
+        <v>0.08153078202995008</v>
       </c>
       <c r="J17">
-        <v>0.4542372881355932</v>
+        <v>0.4575707154742096</v>
       </c>
       <c r="K17">
-        <v>0.09152542372881356</v>
+        <v>0.09151414309484193</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01864406779661017</v>
+        <v>0.01830282861896839</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0576271186440678</v>
+        <v>0.05657237936772046</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1067796610169491</v>
+        <v>0.1064891846921797</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0193050193050193</v>
+        <v>0.01845018450184502</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1891891891891892</v>
+        <v>0.1955719557195572</v>
       </c>
       <c r="I18">
-        <v>0.07722007722007722</v>
+        <v>0.07749077490774908</v>
       </c>
       <c r="J18">
-        <v>0.5057915057915058</v>
+        <v>0.4981549815498155</v>
       </c>
       <c r="K18">
-        <v>0.08108108108108109</v>
+        <v>0.08118081180811808</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007722007722007722</v>
+        <v>0.007380073800738007</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05019305019305019</v>
+        <v>0.04797047970479705</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0694980694980695</v>
+        <v>0.07380073800738007</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01174628034455756</v>
+        <v>0.01205727204220045</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2028191072826938</v>
+        <v>0.2019593067068576</v>
       </c>
       <c r="I19">
-        <v>0.06186374314800313</v>
+        <v>0.06028636021100226</v>
       </c>
       <c r="J19">
-        <v>0.4025058731401723</v>
+        <v>0.4046721929163527</v>
       </c>
       <c r="K19">
-        <v>0.09240407204385279</v>
+        <v>0.08967596081386586</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02505873140172279</v>
+        <v>0.02637528259231349</v>
       </c>
       <c r="N19">
-        <v>0.001566170712607674</v>
+        <v>0.001507159005275057</v>
       </c>
       <c r="O19">
-        <v>0.08613938919342208</v>
+        <v>0.08590806330067823</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1158966327329679</v>
+        <v>0.1175584024114544</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Mercy_B.xlsx
+++ b/team_specific_matrix/Mercy_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1724137931034483</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="C2">
-        <v>0.6144200626959248</v>
+        <v>0.6189024390243902</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02507836990595611</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1316614420062696</v>
+        <v>0.1310975609756098</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05642633228840126</v>
+        <v>0.05487804878048781</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004901960784313725</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="C3">
-        <v>0.01470588235294118</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04411764705882353</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.803921568627451</v>
+        <v>0.8056872037914692</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1323529411764706</v>
+        <v>0.1327014218009479</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07792207792207792</v>
+        <v>0.075</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7272727272727273</v>
+        <v>0.725</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1948051948051948</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04471544715447155</v>
+        <v>0.04313725490196078</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02845528455284553</v>
+        <v>0.02745098039215686</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04878048780487805</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2682926829268293</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01626016260162602</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1869918699186992</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="R6">
-        <v>0.0975609756097561</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="S6">
-        <v>0.3089430894308943</v>
+        <v>0.3019607843137255</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06796116504854369</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05825242718446602</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07281553398058252</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1504854368932039</v>
+        <v>0.1488372093023256</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02427184466019417</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2233009708737864</v>
+        <v>0.2186046511627907</v>
       </c>
       <c r="R7">
-        <v>0.0825242718446602</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="S7">
-        <v>0.3203883495145631</v>
+        <v>0.3302325581395349</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08627450980392157</v>
+        <v>0.08413001912045889</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02352941176470588</v>
+        <v>0.02294455066921606</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07843137254901961</v>
+        <v>0.08221797323135756</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1352941176470588</v>
+        <v>0.1338432122370937</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02352941176470588</v>
+        <v>0.02294455066921606</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1686274509803922</v>
+        <v>0.1701720841300191</v>
       </c>
       <c r="R8">
-        <v>0.1098039215686274</v>
+        <v>0.1089866156787763</v>
       </c>
       <c r="S8">
-        <v>0.3745098039215686</v>
+        <v>0.3747609942638623</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0918918918918919</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01621621621621622</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="F9">
-        <v>0.08108108108108109</v>
+        <v>0.08762886597938144</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1351351351351351</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01621621621621622</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2594594594594595</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="R9">
-        <v>0.05945945945945946</v>
+        <v>0.05670103092783505</v>
       </c>
       <c r="S9">
-        <v>0.3405405405405406</v>
+        <v>0.3298969072164948</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1024242424242424</v>
+        <v>0.1038575667655786</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02606060606060606</v>
+        <v>0.02611275964391692</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06</v>
+        <v>0.05934718100890208</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1260606060606061</v>
+        <v>0.1258160237388724</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01090909090909091</v>
+        <v>0.01068249258160237</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2266666666666667</v>
+        <v>0.2249258160237389</v>
       </c>
       <c r="R10">
-        <v>0.1024242424242424</v>
+        <v>0.1032640949554896</v>
       </c>
       <c r="S10">
-        <v>0.3454545454545455</v>
+        <v>0.3459940652818991</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1452145214521452</v>
+        <v>0.1437699680511182</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0891089108910891</v>
+        <v>0.08626198083067092</v>
       </c>
       <c r="K11">
-        <v>0.2112211221122112</v>
+        <v>0.207667731629393</v>
       </c>
       <c r="L11">
-        <v>0.5445544554455446</v>
+        <v>0.5527156549520766</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009900990099009901</v>
+        <v>0.009584664536741214</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7267441860465116</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1802325581395349</v>
+        <v>0.1722222222222222</v>
       </c>
       <c r="K12">
-        <v>0.005813953488372093</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="L12">
-        <v>0.05232558139534884</v>
+        <v>0.05</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03488372093023256</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02205882352941177</v>
+        <v>0.02135231316725979</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1544117647058824</v>
+        <v>0.1565836298932384</v>
       </c>
       <c r="I15">
-        <v>0.05882352941176471</v>
+        <v>0.05693950177935943</v>
       </c>
       <c r="J15">
-        <v>0.4448529411764706</v>
+        <v>0.4448398576512456</v>
       </c>
       <c r="K15">
-        <v>0.04779411764705882</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007352941176470588</v>
+        <v>0.007117437722419928</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05882352941176471</v>
+        <v>0.05693950177935943</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2058823529411765</v>
+        <v>0.2064056939501779</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0326530612244898</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1877551020408163</v>
+        <v>0.1897233201581028</v>
       </c>
       <c r="I16">
-        <v>0.0653061224489796</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="J16">
-        <v>0.4571428571428571</v>
+        <v>0.458498023715415</v>
       </c>
       <c r="K16">
-        <v>0.08979591836734693</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02448979591836735</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="N16">
-        <v>0.004081632653061225</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="O16">
-        <v>0.05714285714285714</v>
+        <v>0.05533596837944664</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08163265306122448</v>
+        <v>0.08300395256916997</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01331114808652246</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1747088186356073</v>
+        <v>0.1739837398373984</v>
       </c>
       <c r="I17">
-        <v>0.08153078202995008</v>
+        <v>0.08130081300813008</v>
       </c>
       <c r="J17">
-        <v>0.4575707154742096</v>
+        <v>0.4536585365853659</v>
       </c>
       <c r="K17">
-        <v>0.09151414309484193</v>
+        <v>0.09268292682926829</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01830282861896839</v>
+        <v>0.01788617886178862</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05657237936772046</v>
+        <v>0.06178861788617886</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1064891846921797</v>
+        <v>0.1040650406504065</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01845018450184502</v>
+        <v>0.01798561151079137</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1955719557195572</v>
+        <v>0.197841726618705</v>
       </c>
       <c r="I18">
-        <v>0.07749077490774908</v>
+        <v>0.08633093525179857</v>
       </c>
       <c r="J18">
-        <v>0.4981549815498155</v>
+        <v>0.4892086330935252</v>
       </c>
       <c r="K18">
-        <v>0.08118081180811808</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007380073800738007</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04797047970479705</v>
+        <v>0.05035971223021583</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07380073800738007</v>
+        <v>0.07194244604316546</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01205727204220045</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2019593067068576</v>
+        <v>0.2007352941176471</v>
       </c>
       <c r="I19">
-        <v>0.06028636021100226</v>
+        <v>0.06176470588235294</v>
       </c>
       <c r="J19">
-        <v>0.4046721929163527</v>
+        <v>0.4036764705882353</v>
       </c>
       <c r="K19">
-        <v>0.08967596081386586</v>
+        <v>0.09191176470588236</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02637528259231349</v>
+        <v>0.02573529411764706</v>
       </c>
       <c r="N19">
-        <v>0.001507159005275057</v>
+        <v>0.001470588235294118</v>
       </c>
       <c r="O19">
-        <v>0.08590806330067823</v>
+        <v>0.08602941176470588</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1175584024114544</v>
+        <v>0.1169117647058824</v>
       </c>
     </row>
   </sheetData>
